--- a/Data/Raw/Annotation/Combined_annotation.xlsx
+++ b/Data/Raw/Annotation/Combined_annotation.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\NanostringPipeline\Data\Raw\Annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelparker/Downloads/NanostringPipeline/Data/Raw/Annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69A7627-C136-4339-8499-DE637C43E010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3768B-AACB-EA40-8CAE-ED7877662357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$137</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="543">
   <si>
     <t>RawReads</t>
   </si>
@@ -664,9 +667,6 @@
     <t>011</t>
   </si>
   <si>
-    <t>PanCK+</t>
-  </si>
-  <si>
     <t>UACC June 2022 015 | 011 | PanCK+</t>
   </si>
   <si>
@@ -688,9 +688,6 @@
     <t>experiment_2</t>
   </si>
   <si>
-    <t>PanCk-</t>
-  </si>
-  <si>
     <t>UACC June 2022 015 | 011 | PanCK-</t>
   </si>
   <si>
@@ -746,9 +743,6 @@
   </si>
   <si>
     <t>012</t>
-  </si>
-  <si>
-    <t>PanCK-</t>
   </si>
   <si>
     <t>UACC June 2022 080 | 012 | PanCK-</t>
@@ -2012,37 +2006,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2107,13 +2099,13 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1639966</v>
       </c>
@@ -2181,7 +2173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3153330</v>
       </c>
@@ -2249,7 +2241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3332357</v>
       </c>
@@ -2317,7 +2309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4561662</v>
       </c>
@@ -2385,7 +2377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4594233</v>
       </c>
@@ -2453,7 +2445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4821577</v>
       </c>
@@ -2521,7 +2513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5925611</v>
       </c>
@@ -2589,7 +2581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6113535</v>
       </c>
@@ -2657,7 +2649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6544765</v>
       </c>
@@ -2725,7 +2717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6917707</v>
       </c>
@@ -2793,7 +2785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7180267</v>
       </c>
@@ -2861,7 +2853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7476078</v>
       </c>
@@ -2929,7 +2921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7747883</v>
       </c>
@@ -2997,7 +2989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8942476</v>
       </c>
@@ -3065,7 +3057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9388291</v>
       </c>
@@ -3133,7 +3125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9683200</v>
       </c>
@@ -3201,7 +3193,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10206471</v>
       </c>
@@ -3269,7 +3261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10652937</v>
       </c>
@@ -3337,7 +3329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10948255</v>
       </c>
@@ -3405,7 +3397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12397754</v>
       </c>
@@ -3473,7 +3465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12655425</v>
       </c>
@@ -3541,7 +3533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>13059882</v>
       </c>
@@ -3609,7 +3601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>13251748</v>
       </c>
@@ -3677,7 +3669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>15128985</v>
       </c>
@@ -3745,7 +3737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>17666846</v>
       </c>
@@ -3813,7 +3805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>17927017</v>
       </c>
@@ -3881,7 +3873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>18653194</v>
       </c>
@@ -3949,7 +3941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>19465132</v>
       </c>
@@ -4017,7 +4009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>22191708</v>
       </c>
@@ -4085,7 +4077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>22718525</v>
       </c>
@@ -4153,7 +4145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>22766226</v>
       </c>
@@ -4221,7 +4213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>23054907</v>
       </c>
@@ -4289,7 +4281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>23492930</v>
       </c>
@@ -4357,7 +4349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>24208001</v>
       </c>
@@ -4425,7 +4417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>25536410</v>
       </c>
@@ -4493,7 +4485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>27008860</v>
       </c>
@@ -4561,7 +4553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>27531232</v>
       </c>
@@ -4629,7 +4621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>30813069</v>
       </c>
@@ -4697,7 +4689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>30980237</v>
       </c>
@@ -4765,7 +4757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>32334704</v>
       </c>
@@ -4833,7 +4825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>37757670</v>
       </c>
@@ -4901,7 +4893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40956536</v>
       </c>
@@ -4969,7 +4961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42459215</v>
       </c>
@@ -5037,7 +5029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>47258586</v>
       </c>
@@ -5105,7 +5097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>51476713</v>
       </c>
@@ -5173,7 +5165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>59773333</v>
       </c>
@@ -5241,7 +5233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>121724304</v>
       </c>
@@ -5309,7 +5301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>130268311</v>
       </c>
@@ -5377,7 +5369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>471504</v>
       </c>
@@ -5391,10 +5383,10 @@
         <v>213</v>
       </c>
       <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
         <v>214</v>
-      </c>
-      <c r="F50" t="s">
-        <v>215</v>
       </c>
       <c r="G50">
         <v>19280.833334999999</v>
@@ -5421,7 +5413,7 @@
         <v>89.072876397212198</v>
       </c>
       <c r="O50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P50">
         <v>99.14</v>
@@ -5430,25 +5422,25 @@
         <v>99.3</v>
       </c>
       <c r="R50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S50" t="s">
         <v>27</v>
       </c>
       <c r="T50" t="s">
+        <v>217</v>
+      </c>
+      <c r="U50" t="s">
         <v>218</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>219</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>220</v>
       </c>
-      <c r="W50" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1482602</v>
       </c>
@@ -5462,10 +5454,10 @@
         <v>213</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G51">
         <v>64994.792909999996</v>
@@ -5492,7 +5484,7 @@
         <v>96.363603329929759</v>
       </c>
       <c r="O51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P51">
         <v>99.16</v>
@@ -5501,25 +5493,25 @@
         <v>99.24</v>
       </c>
       <c r="R51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S51" t="s">
         <v>27</v>
       </c>
       <c r="T51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="V51" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="W51" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1752468</v>
       </c>
@@ -5530,13 +5522,13 @@
         <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G52">
         <v>16960.470576</v>
@@ -5563,7 +5555,7 @@
         <v>97.816776420889852</v>
       </c>
       <c r="O52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P52">
         <v>99.18</v>
@@ -5572,25 +5564,25 @@
         <v>99.25</v>
       </c>
       <c r="R52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S52" t="s">
         <v>27</v>
       </c>
       <c r="T52" t="s">
+        <v>226</v>
+      </c>
+      <c r="U52" t="s">
+        <v>227</v>
+      </c>
+      <c r="V52" t="s">
         <v>228</v>
       </c>
-      <c r="U52" t="s">
-        <v>229</v>
-      </c>
-      <c r="V52" t="s">
-        <v>230</v>
-      </c>
       <c r="W52" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2299310</v>
       </c>
@@ -5601,13 +5593,13 @@
         <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G53">
         <v>102966.633825</v>
@@ -5634,7 +5626,7 @@
         <v>97.428442052812144</v>
       </c>
       <c r="O53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P53">
         <v>99.21</v>
@@ -5643,25 +5635,25 @@
         <v>99.25</v>
       </c>
       <c r="R53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S53" t="s">
         <v>27</v>
       </c>
       <c r="T53" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="W53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2564669</v>
       </c>
@@ -5672,13 +5664,13 @@
         <v>212</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G54">
         <v>122732.55155800001</v>
@@ -5705,7 +5697,7 @@
         <v>95.480279428883492</v>
       </c>
       <c r="O54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P54">
         <v>99.15</v>
@@ -5714,42 +5706,42 @@
         <v>99.22</v>
       </c>
       <c r="R54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S54" t="s">
         <v>91</v>
       </c>
       <c r="T54" t="s">
+        <v>234</v>
+      </c>
+      <c r="U54" t="s">
+        <v>235</v>
+      </c>
+      <c r="V54" t="s">
         <v>236</v>
       </c>
-      <c r="U54" t="s">
-        <v>237</v>
-      </c>
-      <c r="V54" t="s">
-        <v>238</v>
-      </c>
       <c r="W54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3052841</v>
       </c>
       <c r="B55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" t="s">
         <v>239</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
         <v>240</v>
-      </c>
-      <c r="D55" t="s">
-        <v>241</v>
-      </c>
-      <c r="E55" t="s">
-        <v>242</v>
-      </c>
-      <c r="F55" t="s">
-        <v>243</v>
       </c>
       <c r="G55">
         <v>71386.081850000002</v>
@@ -5776,7 +5768,7 @@
         <v>97.187971211705431</v>
       </c>
       <c r="O55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P55">
         <v>99.2</v>
@@ -5785,42 +5777,42 @@
         <v>99.23</v>
       </c>
       <c r="R55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S55" t="s">
         <v>27</v>
       </c>
       <c r="T55" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="U55" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="V55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="W55" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3437559</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D56" t="s">
         <v>213</v>
       </c>
       <c r="E56" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G56">
         <v>32622.243700999999</v>
@@ -5847,7 +5839,7 @@
         <v>96.095120063331223</v>
       </c>
       <c r="O56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P56">
         <v>99.07</v>
@@ -5856,25 +5848,25 @@
         <v>99.23</v>
       </c>
       <c r="R56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S56" t="s">
         <v>27</v>
       </c>
       <c r="T56" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U56" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="V56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="W56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3458351</v>
       </c>
@@ -5885,13 +5877,13 @@
         <v>212</v>
       </c>
       <c r="D57" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E57" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G57">
         <v>14892.822167</v>
@@ -5918,7 +5910,7 @@
         <v>96.90074043977711</v>
       </c>
       <c r="O57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P57">
         <v>99.14</v>
@@ -5927,25 +5919,25 @@
         <v>99.22</v>
       </c>
       <c r="R57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S57" t="s">
         <v>27</v>
       </c>
       <c r="T57" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="U57" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="V57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W57" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4079346</v>
       </c>
@@ -5956,13 +5948,13 @@
         <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G58">
         <v>21605.964287999999</v>
@@ -5989,7 +5981,7 @@
         <v>97.366984993178718</v>
       </c>
       <c r="O58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P58">
         <v>99.12</v>
@@ -5998,42 +5990,42 @@
         <v>99.2</v>
       </c>
       <c r="R58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S58" t="s">
         <v>91</v>
       </c>
       <c r="T58" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U58" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="V58" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="W58" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4537757</v>
       </c>
       <c r="B59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C59" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E59" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G59">
         <v>29803.763477</v>
@@ -6060,7 +6052,7 @@
         <v>97.377819399315086</v>
       </c>
       <c r="O59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P59">
         <v>99.09</v>
@@ -6069,42 +6061,42 @@
         <v>99.15</v>
       </c>
       <c r="R59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S59" t="s">
         <v>27</v>
       </c>
       <c r="T59" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U59" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V59" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="W59" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4581892</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G60">
         <v>19443.905612999999</v>
@@ -6131,7 +6123,7 @@
         <v>96.93473468708045</v>
       </c>
       <c r="O60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P60">
         <v>99.22</v>
@@ -6140,42 +6132,42 @@
         <v>99.29</v>
       </c>
       <c r="R60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S60" t="s">
         <v>27</v>
       </c>
       <c r="T60" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U60" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="V60" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="W60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4603259</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D61" t="s">
         <v>213</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G61">
         <v>104896.64032999999</v>
@@ -6202,7 +6194,7 @@
         <v>97.617492214810142</v>
       </c>
       <c r="O61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P61">
         <v>99.11</v>
@@ -6211,25 +6203,25 @@
         <v>99.19</v>
       </c>
       <c r="R61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S61" t="s">
         <v>27</v>
       </c>
       <c r="T61" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U61" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V61" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="W61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4603758</v>
       </c>
@@ -6240,13 +6232,13 @@
         <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G62">
         <v>32758.773025999999</v>
@@ -6273,7 +6265,7 @@
         <v>97.468837624774864</v>
       </c>
       <c r="O62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P62">
         <v>99.22</v>
@@ -6282,25 +6274,25 @@
         <v>99.29</v>
       </c>
       <c r="R62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S62" t="s">
         <v>91</v>
       </c>
       <c r="T62" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="U62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="V62" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="W62" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4748643</v>
       </c>
@@ -6311,13 +6303,13 @@
         <v>212</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E63" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G63">
         <v>19693.282225999999</v>
@@ -6344,7 +6336,7 @@
         <v>97.261750764428768</v>
       </c>
       <c r="O63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P63">
         <v>99.14</v>
@@ -6353,42 +6345,42 @@
         <v>99.21</v>
       </c>
       <c r="R63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S63" t="s">
         <v>27</v>
       </c>
       <c r="T63" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U63" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="V63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="W63" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4865932</v>
       </c>
       <c r="B64" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" t="s">
         <v>239</v>
       </c>
-      <c r="C64" t="s">
-        <v>240</v>
-      </c>
-      <c r="D64" t="s">
-        <v>241</v>
-      </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G64">
         <v>25338.348606</v>
@@ -6415,7 +6407,7 @@
         <v>97.501986479754081</v>
       </c>
       <c r="O64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P64">
         <v>99.14</v>
@@ -6424,25 +6416,25 @@
         <v>99.21</v>
       </c>
       <c r="R64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S64" t="s">
         <v>27</v>
       </c>
       <c r="T64" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="U64" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="V64" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="W64" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4993024</v>
       </c>
@@ -6453,13 +6445,13 @@
         <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E65" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G65">
         <v>84866.087759000002</v>
@@ -6486,7 +6478,7 @@
         <v>97.405797010563006</v>
       </c>
       <c r="O65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P65">
         <v>99.16</v>
@@ -6495,25 +6487,25 @@
         <v>99.21</v>
       </c>
       <c r="R65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S65" t="s">
         <v>27</v>
       </c>
       <c r="T65" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V65" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="W65" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5050179</v>
       </c>
@@ -6524,13 +6516,13 @@
         <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G66">
         <v>87590.634535999998</v>
@@ -6557,7 +6549,7 @@
         <v>96.886608143958426</v>
       </c>
       <c r="O66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P66">
         <v>99.17</v>
@@ -6566,42 +6558,42 @@
         <v>99.31</v>
       </c>
       <c r="R66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S66" t="s">
         <v>27</v>
       </c>
       <c r="T66" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U66" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="V66" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="W66" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5431894</v>
       </c>
       <c r="B67" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D67" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G67">
         <v>34893.017228999997</v>
@@ -6628,7 +6620,7 @@
         <v>97.471264003273021</v>
       </c>
       <c r="O67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P67">
         <v>99.21</v>
@@ -6637,42 +6629,42 @@
         <v>99.26</v>
       </c>
       <c r="R67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S67" t="s">
         <v>27</v>
       </c>
       <c r="T67" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U67" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="V67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="W67" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5440507</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C68" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E68" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G68">
         <v>77520.365065000005</v>
@@ -6699,7 +6691,7 @@
         <v>97.533128991979495</v>
       </c>
       <c r="O68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P68">
         <v>99.26</v>
@@ -6708,42 +6700,42 @@
         <v>99.32</v>
       </c>
       <c r="R68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S68" t="s">
         <v>27</v>
       </c>
       <c r="T68" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="U68" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="V68" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="W68" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>5538866</v>
       </c>
       <c r="B69" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D69" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G69">
         <v>46029.773042000001</v>
@@ -6770,7 +6762,7 @@
         <v>97.445572491847372</v>
       </c>
       <c r="O69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P69">
         <v>99.17</v>
@@ -6779,25 +6771,25 @@
         <v>99.23</v>
       </c>
       <c r="R69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S69" t="s">
         <v>27</v>
       </c>
       <c r="T69" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="V69" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="W69" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5560448</v>
       </c>
@@ -6808,13 +6800,13 @@
         <v>212</v>
       </c>
       <c r="D70" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G70">
         <v>25965.207343999999</v>
@@ -6841,7 +6833,7 @@
         <v>97.562849655714643</v>
       </c>
       <c r="O70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P70">
         <v>99.14</v>
@@ -6850,42 +6842,42 @@
         <v>99.2</v>
       </c>
       <c r="R70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S70" t="s">
         <v>91</v>
       </c>
       <c r="T70" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U70" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="W70" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5644734</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G71">
         <v>21543.341991000001</v>
@@ -6912,7 +6904,7 @@
         <v>97.599445899472514</v>
       </c>
       <c r="O71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P71">
         <v>99.16</v>
@@ -6921,42 +6913,42 @@
         <v>99.2</v>
       </c>
       <c r="R71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S71" t="s">
         <v>27</v>
       </c>
       <c r="T71" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="U71" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="V71" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="W71" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5695639</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E72" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G72">
         <v>40775.380793999997</v>
@@ -6983,7 +6975,7 @@
         <v>96.841074809835334</v>
       </c>
       <c r="O72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P72">
         <v>99.25</v>
@@ -6992,25 +6984,25 @@
         <v>99.28</v>
       </c>
       <c r="R72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S72" t="s">
         <v>27</v>
       </c>
       <c r="T72" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="U72" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="V72" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="W72" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5775496</v>
       </c>
@@ -7021,13 +7013,13 @@
         <v>212</v>
       </c>
       <c r="D73" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E73" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G73">
         <v>70446.747382000001</v>
@@ -7054,7 +7046,7 @@
         <v>97.361513281195172</v>
       </c>
       <c r="O73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P73">
         <v>99.21</v>
@@ -7063,25 +7055,25 @@
         <v>99.27</v>
       </c>
       <c r="R73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S73" t="s">
         <v>91</v>
       </c>
       <c r="T73" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U73" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="V73" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="W73" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5794939</v>
       </c>
@@ -7092,13 +7084,13 @@
         <v>212</v>
       </c>
       <c r="D74" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E74" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G74">
         <v>23470.487579000001</v>
@@ -7125,7 +7117,7 @@
         <v>97.82349683770552</v>
       </c>
       <c r="O74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P74">
         <v>99.26</v>
@@ -7134,42 +7126,42 @@
         <v>99.31</v>
       </c>
       <c r="R74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S74" t="s">
         <v>27</v>
       </c>
       <c r="T74" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U74" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="V74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="W74" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5945046</v>
       </c>
       <c r="B75" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C75" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D75" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E75" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G75">
         <v>32165.291654000001</v>
@@ -7196,7 +7188,7 @@
         <v>97.592559238711658</v>
       </c>
       <c r="O75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P75">
         <v>99.17</v>
@@ -7205,42 +7197,42 @@
         <v>99.21</v>
       </c>
       <c r="R75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S75" t="s">
         <v>27</v>
       </c>
       <c r="T75" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="U75" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="V75" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="W75" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>6182634</v>
       </c>
       <c r="B76" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G76">
         <v>73624.590590000007</v>
@@ -7267,7 +7259,7 @@
         <v>97.108679365781171</v>
       </c>
       <c r="O76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P76">
         <v>98.92</v>
@@ -7276,42 +7268,42 @@
         <v>99.11</v>
       </c>
       <c r="R76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S76" t="s">
         <v>27</v>
       </c>
       <c r="T76" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="U76" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="V76" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="W76" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>6209294</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C77" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D77" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E77" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G77">
         <v>155084.756467</v>
@@ -7338,7 +7330,7 @@
         <v>97.225273970482732</v>
       </c>
       <c r="O77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P77">
         <v>99.13</v>
@@ -7347,42 +7339,42 @@
         <v>99.18</v>
       </c>
       <c r="R77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S77" t="s">
         <v>91</v>
       </c>
       <c r="T77" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="U77" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="V77" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W77" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6227252</v>
       </c>
       <c r="B78" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C78" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D78" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E78" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G78">
         <v>34237.867199</v>
@@ -7409,7 +7401,7 @@
         <v>97.311937670048025</v>
       </c>
       <c r="O78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P78">
         <v>99.1</v>
@@ -7418,42 +7410,42 @@
         <v>99.18</v>
       </c>
       <c r="R78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S78" t="s">
         <v>27</v>
       </c>
       <c r="T78" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="V78" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="W78" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>6596027</v>
       </c>
       <c r="B79" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D79" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F79" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G79">
         <v>113884.05265500001</v>
@@ -7480,7 +7472,7 @@
         <v>97.390688888420087</v>
       </c>
       <c r="O79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P79">
         <v>99.24</v>
@@ -7489,42 +7481,42 @@
         <v>99.3</v>
       </c>
       <c r="R79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S79" t="s">
         <v>27</v>
       </c>
       <c r="T79" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="U79" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="V79" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W79" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>6810147</v>
       </c>
       <c r="B80" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C80" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D80" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E80" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G80">
         <v>42986.392940999998</v>
@@ -7551,7 +7543,7 @@
         <v>97.282981726411435</v>
       </c>
       <c r="O80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P80">
         <v>99.18</v>
@@ -7560,42 +7552,42 @@
         <v>99.24</v>
       </c>
       <c r="R80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S80" t="s">
         <v>27</v>
       </c>
       <c r="T80" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="U80" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V80" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="W80" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7064837</v>
       </c>
       <c r="B81" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C81" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D81" t="s">
         <v>213</v>
       </c>
       <c r="E81" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G81">
         <v>51028.113204000001</v>
@@ -7622,7 +7614,7 @@
         <v>96.874460884079056</v>
       </c>
       <c r="O81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P81">
         <v>99.07</v>
@@ -7631,42 +7623,42 @@
         <v>99.1</v>
       </c>
       <c r="R81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S81" t="s">
         <v>27</v>
       </c>
       <c r="T81" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="U81" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V81" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="W81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>7160462</v>
       </c>
       <c r="B82" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G82">
         <v>187367.02784600001</v>
@@ -7693,7 +7685,7 @@
         <v>97.137000871203341</v>
       </c>
       <c r="O82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P82">
         <v>99.15</v>
@@ -7702,42 +7694,42 @@
         <v>99.21</v>
       </c>
       <c r="R82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S82" t="s">
         <v>27</v>
       </c>
       <c r="T82" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="U82" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="V82" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W82" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>7170998</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C83" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E83" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G83">
         <v>31029.507540999999</v>
@@ -7764,7 +7756,7 @@
         <v>97.384871765316376</v>
       </c>
       <c r="O83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P83">
         <v>99.12</v>
@@ -7773,42 +7765,42 @@
         <v>99.22</v>
       </c>
       <c r="R83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S83" t="s">
         <v>27</v>
       </c>
       <c r="T83" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="U83" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="V83" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="W83" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>7342285</v>
       </c>
       <c r="B84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C84" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E84" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G84">
         <v>101791.90945000001</v>
@@ -7835,7 +7827,7 @@
         <v>97.677398020907475</v>
       </c>
       <c r="O84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P84">
         <v>99.2</v>
@@ -7844,42 +7836,42 @@
         <v>99.25</v>
       </c>
       <c r="R84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S84" t="s">
         <v>27</v>
       </c>
       <c r="T84" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="U84" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="V84" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="W84" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>7346552</v>
       </c>
       <c r="B85" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D85" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E85" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G85">
         <v>39148.472567999997</v>
@@ -7906,7 +7898,7 @@
         <v>97.714428413820755</v>
       </c>
       <c r="O85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P85">
         <v>99.11</v>
@@ -7915,42 +7907,42 @@
         <v>99.19</v>
       </c>
       <c r="R85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S85" t="s">
         <v>27</v>
       </c>
       <c r="T85" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U85" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="V85" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="W85" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>7654101</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C86" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D86" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E86" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G86">
         <v>39005.585649000001</v>
@@ -7977,7 +7969,7 @@
         <v>97.474761302479649</v>
       </c>
       <c r="O86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P86">
         <v>99.16</v>
@@ -7986,42 +7978,42 @@
         <v>99.21</v>
       </c>
       <c r="R86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S86" t="s">
         <v>91</v>
       </c>
       <c r="T86" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="U86" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="V86" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="W86" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>7965062</v>
       </c>
       <c r="B87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C87" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D87" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G87">
         <v>41890.661668000001</v>
@@ -8048,7 +8040,7 @@
         <v>97.408402002172792</v>
       </c>
       <c r="O87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P87">
         <v>99.25</v>
@@ -8057,42 +8049,42 @@
         <v>99.24</v>
       </c>
       <c r="R87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S87" t="s">
         <v>27</v>
       </c>
       <c r="T87" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="U87" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V87" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="W87" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>7988427</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C88" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D88" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E88" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G88">
         <v>47780.336465</v>
@@ -8119,7 +8111,7 @@
         <v>97.573464197063714</v>
       </c>
       <c r="O88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P88">
         <v>99.19</v>
@@ -8128,42 +8120,42 @@
         <v>99.25</v>
       </c>
       <c r="R88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S88" t="s">
         <v>27</v>
       </c>
       <c r="T88" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="U88" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="V88" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="W88" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8125144</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E89" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G89">
         <v>44956.929106000003</v>
@@ -8190,7 +8182,7 @@
         <v>97.429108607870063</v>
       </c>
       <c r="O89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P89">
         <v>99.21</v>
@@ -8199,42 +8191,42 @@
         <v>99.26</v>
       </c>
       <c r="R89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S89" t="s">
         <v>91</v>
       </c>
       <c r="T89" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U89" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="V89" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="W89" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8205527</v>
       </c>
       <c r="B90" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C90" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D90" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G90">
         <v>191265.345359</v>
@@ -8261,7 +8253,7 @@
         <v>94.811347452535642</v>
       </c>
       <c r="O90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P90">
         <v>99.13</v>
@@ -8270,42 +8262,42 @@
         <v>99.2</v>
       </c>
       <c r="R90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S90" t="s">
         <v>150</v>
       </c>
       <c r="T90" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="U90" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V90" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="W90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8303574</v>
       </c>
       <c r="B91" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C91" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D91" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E91" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F91" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G91">
         <v>177433.12875900001</v>
@@ -8332,7 +8324,7 @@
         <v>97.677293236128932</v>
       </c>
       <c r="O91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P91">
         <v>99.2</v>
@@ -8341,42 +8333,42 @@
         <v>99.25</v>
       </c>
       <c r="R91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S91" t="s">
         <v>27</v>
       </c>
       <c r="T91" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U91" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="V91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="W91" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>8797720</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C92" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D92" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E92" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F92" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G92">
         <v>135613.19532200001</v>
@@ -8403,7 +8395,7 @@
         <v>97.007177310935205</v>
       </c>
       <c r="O92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P92">
         <v>99.1</v>
@@ -8412,42 +8404,42 @@
         <v>99.15</v>
       </c>
       <c r="R92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S92" t="s">
         <v>150</v>
       </c>
       <c r="T92" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="U92" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="V92" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="W92" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8832752</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C93" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D93" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E93" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F93" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G93">
         <v>175151.70626199999</v>
@@ -8474,7 +8466,7 @@
         <v>97.467141372812605</v>
       </c>
       <c r="O93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P93">
         <v>99.17</v>
@@ -8483,25 +8475,25 @@
         <v>99.22</v>
       </c>
       <c r="R93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S93" t="s">
         <v>91</v>
       </c>
       <c r="T93" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="U93" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="V93" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="W93" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8872779</v>
       </c>
@@ -8512,13 +8504,13 @@
         <v>212</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E94" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F94" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G94">
         <v>117929.230583</v>
@@ -8545,7 +8537,7 @@
         <v>97.975583938755264</v>
       </c>
       <c r="O94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P94">
         <v>99.1</v>
@@ -8554,25 +8546,25 @@
         <v>99.16</v>
       </c>
       <c r="R94" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S94" t="s">
         <v>27</v>
       </c>
       <c r="T94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="U94" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="V94" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="W94" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8931512</v>
       </c>
@@ -8583,13 +8575,13 @@
         <v>212</v>
       </c>
       <c r="D95" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E95" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G95">
         <v>61580.129336999998</v>
@@ -8616,7 +8608,7 @@
         <v>96.611807728086944</v>
       </c>
       <c r="O95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P95">
         <v>99.22</v>
@@ -8625,25 +8617,25 @@
         <v>99.29</v>
       </c>
       <c r="R95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S95" t="s">
         <v>150</v>
       </c>
       <c r="T95" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="U95" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="V95" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="W95" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>9040782</v>
       </c>
@@ -8654,13 +8646,13 @@
         <v>212</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E96" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F96" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G96">
         <v>129857.82468999999</v>
@@ -8687,7 +8679,7 @@
         <v>97.229363797146192</v>
       </c>
       <c r="O96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P96">
         <v>99.12</v>
@@ -8696,25 +8688,25 @@
         <v>99.15</v>
       </c>
       <c r="R96" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S96" t="s">
         <v>91</v>
       </c>
       <c r="T96" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U96" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="V96" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="W96" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>9151660</v>
       </c>
@@ -8725,13 +8717,13 @@
         <v>212</v>
       </c>
       <c r="D97" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E97" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G97">
         <v>43246.736402000002</v>
@@ -8758,7 +8750,7 @@
         <v>97.571992577826848</v>
       </c>
       <c r="O97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P97">
         <v>99.22</v>
@@ -8767,42 +8759,42 @@
         <v>99.24</v>
       </c>
       <c r="R97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S97" t="s">
         <v>150</v>
       </c>
       <c r="T97" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="U97" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="V97" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="W97" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9415835</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E98" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G98">
         <v>46821.134516999999</v>
@@ -8829,7 +8821,7 @@
         <v>97.229500088234673</v>
       </c>
       <c r="O98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P98">
         <v>99.14</v>
@@ -8838,42 +8830,42 @@
         <v>99.22</v>
       </c>
       <c r="R98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S98" t="s">
         <v>27</v>
       </c>
       <c r="T98" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="U98" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="V98" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="W98" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>9485553</v>
       </c>
       <c r="B99" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C99" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D99" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E99" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F99" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G99">
         <v>137782.72417</v>
@@ -8900,7 +8892,7 @@
         <v>97.234516068472345</v>
       </c>
       <c r="O99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P99">
         <v>99.11</v>
@@ -8909,42 +8901,42 @@
         <v>99.17</v>
       </c>
       <c r="R99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S99" t="s">
         <v>27</v>
       </c>
       <c r="T99" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="U99" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="V99" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="W99" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9659224</v>
       </c>
       <c r="B100" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C100" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E100" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G100">
         <v>44648.585811999998</v>
@@ -8971,7 +8963,7 @@
         <v>97.266156415590572</v>
       </c>
       <c r="O100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P100">
         <v>99.16</v>
@@ -8980,42 +8972,42 @@
         <v>99.23</v>
       </c>
       <c r="R100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S100" t="s">
         <v>91</v>
       </c>
       <c r="T100" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="U100" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="V100" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="W100" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9805285</v>
       </c>
       <c r="B101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D101" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E101" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G101">
         <v>38324.210545000002</v>
@@ -9042,7 +9034,7 @@
         <v>97.098377436625</v>
       </c>
       <c r="O101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P101">
         <v>99.22</v>
@@ -9051,25 +9043,25 @@
         <v>99.27</v>
       </c>
       <c r="R101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S101" t="s">
         <v>91</v>
       </c>
       <c r="T101" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="U101" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="V101" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="W101" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>9919599</v>
       </c>
@@ -9080,13 +9072,13 @@
         <v>212</v>
       </c>
       <c r="D102" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E102" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G102">
         <v>40126.111537999997</v>
@@ -9113,7 +9105,7 @@
         <v>97.423273816562045</v>
       </c>
       <c r="O102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P102">
         <v>99.15</v>
@@ -9122,42 +9114,42 @@
         <v>99.22</v>
       </c>
       <c r="R102" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S102" t="s">
         <v>150</v>
       </c>
       <c r="T102" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="U102" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="V102" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W102" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10247536</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C103" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D103" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E103" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F103" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G103">
         <v>131886.214958</v>
@@ -9184,7 +9176,7 @@
         <v>97.448306508947127</v>
       </c>
       <c r="O103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P103">
         <v>99.19</v>
@@ -9193,42 +9185,42 @@
         <v>99.22</v>
       </c>
       <c r="R103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S103" t="s">
         <v>150</v>
       </c>
       <c r="T103" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="U103" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="V103" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="W103" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10867144</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C104" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D104" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E104" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F104" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G104">
         <v>134444.98748000001</v>
@@ -9255,7 +9247,7 @@
         <v>97.191539152877596</v>
       </c>
       <c r="O104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P104">
         <v>99.17</v>
@@ -9264,42 +9256,42 @@
         <v>99.22</v>
       </c>
       <c r="R104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S104" t="s">
         <v>91</v>
       </c>
       <c r="T104" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="U104" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V104" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="W104" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>11050830</v>
       </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C105" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D105" t="s">
         <v>213</v>
       </c>
       <c r="E105" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F105" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G105">
         <v>173639.07578300001</v>
@@ -9326,7 +9318,7 @@
         <v>97.799463970741016</v>
       </c>
       <c r="O105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P105">
         <v>99.14</v>
@@ -9335,42 +9327,42 @@
         <v>99.19</v>
       </c>
       <c r="R105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S105" t="s">
         <v>27</v>
       </c>
       <c r="T105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="U105" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="V105" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="W105" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>11069851</v>
       </c>
       <c r="B106" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C106" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D106" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E106" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G106">
         <v>43358.312171999998</v>
@@ -9397,7 +9389,7 @@
         <v>97.07373921098889</v>
       </c>
       <c r="O106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P106">
         <v>99.15</v>
@@ -9406,42 +9398,42 @@
         <v>99.2</v>
       </c>
       <c r="R106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S106" t="s">
         <v>150</v>
       </c>
       <c r="T106" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="U106" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="V106" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W106" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>11529013</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D107" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E107" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F107" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G107">
         <v>227420.18599599999</v>
@@ -9468,7 +9460,7 @@
         <v>97.263742596437311</v>
       </c>
       <c r="O107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P107">
         <v>99.24</v>
@@ -9477,42 +9469,42 @@
         <v>99.29</v>
       </c>
       <c r="R107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S107" t="s">
         <v>27</v>
       </c>
       <c r="T107" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="U107" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="V107" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="W107" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>11664294</v>
       </c>
       <c r="B108" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C108" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D108" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E108" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F108" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G108">
         <v>174662.33048800001</v>
@@ -9539,7 +9531,7 @@
         <v>97.515611655223665</v>
       </c>
       <c r="O108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P108">
         <v>99.25</v>
@@ -9548,42 +9540,42 @@
         <v>99.26</v>
       </c>
       <c r="R108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S108" t="s">
         <v>27</v>
       </c>
       <c r="T108" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U108" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="V108" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="W108" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>12066545</v>
       </c>
       <c r="B109" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D109" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E109" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F109" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G109">
         <v>207432.070362</v>
@@ -9610,7 +9602,7 @@
         <v>97.345282897487863</v>
       </c>
       <c r="O109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P109">
         <v>99.16</v>
@@ -9619,42 +9611,42 @@
         <v>99.23</v>
       </c>
       <c r="R109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S109" t="s">
         <v>150</v>
       </c>
       <c r="T109" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="U109" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V109" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="W109" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>12218190</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C110" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D110" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E110" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G110">
         <v>43777.436536000001</v>
@@ -9681,7 +9673,7 @@
         <v>97.628717798752518</v>
       </c>
       <c r="O110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P110">
         <v>99.19</v>
@@ -9690,42 +9682,42 @@
         <v>99.24</v>
       </c>
       <c r="R110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S110" t="s">
         <v>150</v>
       </c>
       <c r="T110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="U110" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="V110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="W110" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>12495018</v>
       </c>
       <c r="B111" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C111" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D111" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E111" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G111">
         <v>96818.522842999999</v>
@@ -9752,7 +9744,7 @@
         <v>97.56461494431251</v>
       </c>
       <c r="O111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P111">
         <v>99.12</v>
@@ -9761,42 +9753,42 @@
         <v>99.18</v>
       </c>
       <c r="R111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S111" t="s">
         <v>91</v>
       </c>
       <c r="T111" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="U111" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="V111" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="W111" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>12650417</v>
       </c>
       <c r="B112" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C112" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D112" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E112" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G112">
         <v>52215.075945999997</v>
@@ -9823,7 +9815,7 @@
         <v>96.847241980914617</v>
       </c>
       <c r="O112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P112">
         <v>98.99</v>
@@ -9832,42 +9824,42 @@
         <v>99.17</v>
       </c>
       <c r="R112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S112" t="s">
         <v>150</v>
       </c>
       <c r="T112" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="U112" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="V112" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="W112" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>12760531</v>
       </c>
       <c r="B113" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C113" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D113" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E113" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G113">
         <v>47653.025651999997</v>
@@ -9894,7 +9886,7 @@
         <v>97.021433640543719</v>
       </c>
       <c r="O113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P113">
         <v>99.14</v>
@@ -9903,25 +9895,25 @@
         <v>99.24</v>
       </c>
       <c r="R113" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S113" t="s">
         <v>91</v>
       </c>
       <c r="T113" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="U113" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="V113" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="W113" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>12833387</v>
       </c>
@@ -9932,13 +9924,13 @@
         <v>212</v>
       </c>
       <c r="D114" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E114" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F114" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G114">
         <v>46531.705064000002</v>
@@ -9965,7 +9957,7 @@
         <v>97.378586111427097</v>
       </c>
       <c r="O114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P114">
         <v>99.08</v>
@@ -9974,42 +9966,42 @@
         <v>99.16</v>
       </c>
       <c r="R114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S114" t="s">
         <v>150</v>
       </c>
       <c r="T114" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="U114" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="V114" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="W114" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>12948306</v>
       </c>
       <c r="B115" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C115" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D115" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E115" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G115">
         <v>64074.531222999998</v>
@@ -10036,7 +10028,7 @@
         <v>97.153880695537438</v>
       </c>
       <c r="O115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P115">
         <v>99.19</v>
@@ -10045,42 +10037,42 @@
         <v>99.24</v>
       </c>
       <c r="R115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S115" t="s">
         <v>91</v>
       </c>
       <c r="T115" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="U115" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="V115" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="W115" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>13064564</v>
       </c>
       <c r="B116" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C116" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D116" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E116" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F116" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G116">
         <v>223352.59755000001</v>
@@ -10107,7 +10099,7 @@
         <v>97.310367046381202</v>
       </c>
       <c r="O116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P116">
         <v>99.17</v>
@@ -10116,42 +10108,42 @@
         <v>99.25</v>
       </c>
       <c r="R116" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S116" t="s">
         <v>27</v>
       </c>
       <c r="T116" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U116" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="V116" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="W116" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>13267376</v>
       </c>
       <c r="B117" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C117" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D117" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E117" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F117" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G117">
         <v>135668.506387</v>
@@ -10178,7 +10170,7 @@
         <v>97.576693867574349</v>
       </c>
       <c r="O117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P117">
         <v>99.27</v>
@@ -10187,42 +10179,42 @@
         <v>99.32</v>
       </c>
       <c r="R117" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S117" t="s">
         <v>91</v>
       </c>
       <c r="T117" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="U117" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="V117" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="W117" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>13455274</v>
       </c>
       <c r="B118" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C118" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D118" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E118" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F118" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G118">
         <v>236438.43265</v>
@@ -10249,7 +10241,7 @@
         <v>97.401561592504208</v>
       </c>
       <c r="O118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P118">
         <v>99.16</v>
@@ -10258,42 +10250,42 @@
         <v>99.27</v>
       </c>
       <c r="R118" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S118" t="s">
         <v>27</v>
       </c>
       <c r="T118" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="U118" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="V118" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="W118" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>13550546</v>
       </c>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C119" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D119" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E119" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F119" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G119">
         <v>42035.614803999997</v>
@@ -10320,7 +10312,7 @@
         <v>96.912358671139089</v>
       </c>
       <c r="O119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P119">
         <v>99.09</v>
@@ -10329,42 +10321,42 @@
         <v>99.22</v>
       </c>
       <c r="R119" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S119" t="s">
         <v>150</v>
       </c>
       <c r="T119" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="U119" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="V119" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W119" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>14330604</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E120" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G120">
         <v>36699.368537000002</v>
@@ -10391,7 +10383,7 @@
         <v>97.151798316378674</v>
       </c>
       <c r="O120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P120">
         <v>99.14</v>
@@ -10400,25 +10392,25 @@
         <v>99.2</v>
       </c>
       <c r="R120" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S120" t="s">
         <v>27</v>
       </c>
       <c r="T120" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="U120" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="V120" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="W120" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>16142139</v>
       </c>
@@ -10429,13 +10421,13 @@
         <v>212</v>
       </c>
       <c r="D121" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E121" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F121" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G121">
         <v>78537.580056000006</v>
@@ -10462,7 +10454,7 @@
         <v>96.945612484607494</v>
       </c>
       <c r="O121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P121">
         <v>99.14</v>
@@ -10471,42 +10463,42 @@
         <v>99.25</v>
       </c>
       <c r="R121" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S121" t="s">
         <v>150</v>
       </c>
       <c r="T121" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="U121" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="V121" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="W121" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>16358029</v>
       </c>
       <c r="B122" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C122" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D122" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E122" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F122" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G122">
         <v>239414.42225800001</v>
@@ -10533,7 +10525,7 @@
         <v>96.881157228721449</v>
       </c>
       <c r="O122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P122">
         <v>99.15</v>
@@ -10542,42 +10534,42 @@
         <v>99.24</v>
       </c>
       <c r="R122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S122" t="s">
         <v>91</v>
       </c>
       <c r="T122" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="U122" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="V122" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="W122" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>16435968</v>
       </c>
       <c r="B123" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C123" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D123" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E123" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G123">
         <v>118215.799119</v>
@@ -10604,7 +10596,7 @@
         <v>96.273292211258081</v>
       </c>
       <c r="O123" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P123">
         <v>99.09</v>
@@ -10613,42 +10605,42 @@
         <v>99.24</v>
       </c>
       <c r="R123" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S123" t="s">
         <v>91</v>
       </c>
       <c r="T123" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="U123" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="V123" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="W123" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>17054119</v>
       </c>
       <c r="B124" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D124" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E124" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F124" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G124">
         <v>194886.153907</v>
@@ -10675,7 +10667,7 @@
         <v>97.745931026863985</v>
       </c>
       <c r="O124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P124">
         <v>99.19</v>
@@ -10684,42 +10676,42 @@
         <v>99.24</v>
       </c>
       <c r="R124" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S124" t="s">
         <v>91</v>
       </c>
       <c r="T124" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="U124" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="V124" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="W124" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>17530579</v>
       </c>
       <c r="B125" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C125" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D125" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E125" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F125" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G125">
         <v>108364.54875</v>
@@ -10746,7 +10738,7 @@
         <v>97.371467962978627</v>
       </c>
       <c r="O125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P125">
         <v>99.16</v>
@@ -10755,42 +10747,42 @@
         <v>99.24</v>
       </c>
       <c r="R125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S125" t="s">
         <v>150</v>
       </c>
       <c r="T125" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="U125" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="V125" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="W125" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>17648668</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C126" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D126" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E126" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G126">
         <v>68666.144327999995</v>
@@ -10817,7 +10809,7 @@
         <v>97.057126388086104</v>
       </c>
       <c r="O126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P126">
         <v>99.12</v>
@@ -10826,42 +10818,42 @@
         <v>99.21</v>
       </c>
       <c r="R126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S126" t="s">
         <v>150</v>
       </c>
       <c r="T126" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="U126" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="V126" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="W126" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>17685790</v>
       </c>
       <c r="B127" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C127" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D127" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E127" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F127" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G127">
         <v>75887.258184999999</v>
@@ -10888,7 +10880,7 @@
         <v>97.42663055537794</v>
       </c>
       <c r="O127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P127">
         <v>99.06</v>
@@ -10897,25 +10889,25 @@
         <v>99.15</v>
       </c>
       <c r="R127" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S127" t="s">
         <v>150</v>
       </c>
       <c r="T127" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="U127" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="V127" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="W127" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>18981677</v>
       </c>
@@ -10926,13 +10918,13 @@
         <v>212</v>
       </c>
       <c r="D128" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E128" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F128" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G128">
         <v>71653.418665000005</v>
@@ -10959,7 +10951,7 @@
         <v>97.857068425507393</v>
       </c>
       <c r="O128" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P128">
         <v>99.13</v>
@@ -10968,42 +10960,42 @@
         <v>99.21</v>
       </c>
       <c r="R128" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S128" t="s">
         <v>150</v>
       </c>
       <c r="T128" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="U128" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="V128" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="W128" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>20487463</v>
       </c>
       <c r="B129" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C129" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D129" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E129" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F129" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G129">
         <v>56330.505283999999</v>
@@ -11030,7 +11022,7 @@
         <v>97.358858493755676</v>
       </c>
       <c r="O129" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P129">
         <v>99.09</v>
@@ -11039,42 +11031,42 @@
         <v>99.14</v>
       </c>
       <c r="R129" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S129" t="s">
         <v>150</v>
       </c>
       <c r="T129" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="U129" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="V129" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="W129" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>22755718</v>
       </c>
       <c r="B130" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C130" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D130" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E130" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F130" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G130">
         <v>143241.195175</v>
@@ -11101,7 +11093,7 @@
         <v>97.317230006868328</v>
       </c>
       <c r="O130" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P130">
         <v>99.25</v>
@@ -11110,42 +11102,42 @@
         <v>99.24</v>
       </c>
       <c r="R130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S130" t="s">
         <v>150</v>
       </c>
       <c r="T130" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="U130" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="V130" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="W130" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>23144010</v>
       </c>
       <c r="B131" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C131" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D131" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E131" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F131" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G131">
         <v>87238.105966000003</v>
@@ -11172,7 +11164,7 @@
         <v>97.31768060141809</v>
       </c>
       <c r="O131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P131">
         <v>99.19</v>
@@ -11181,42 +11173,42 @@
         <v>99.27</v>
       </c>
       <c r="R131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S131" t="s">
         <v>150</v>
       </c>
       <c r="T131" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="U131" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="V131" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="W131" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>26715265</v>
       </c>
       <c r="B132" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C132" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D132" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E132" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F132" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G132">
         <v>73123.453267000004</v>
@@ -11243,7 +11235,7 @@
         <v>97.6702843204923</v>
       </c>
       <c r="O132" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P132">
         <v>99.21</v>
@@ -11252,42 +11244,42 @@
         <v>99.28</v>
       </c>
       <c r="R132" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S132" t="s">
         <v>150</v>
       </c>
       <c r="T132" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="U132" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="V132" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="W132" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>27315087</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D133" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E133" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F133" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G133">
         <v>144943.75876600001</v>
@@ -11314,7 +11306,7 @@
         <v>97.057448313809331</v>
       </c>
       <c r="O133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P133">
         <v>99.11</v>
@@ -11323,42 +11315,42 @@
         <v>99.18</v>
       </c>
       <c r="R133" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S133" t="s">
         <v>91</v>
       </c>
       <c r="T133" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="U133" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="V133" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="W133" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>27917826</v>
       </c>
       <c r="B134" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C134" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E134" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G134">
         <v>60380.292466999999</v>
@@ -11385,7 +11377,7 @@
         <v>97.291074785426574</v>
       </c>
       <c r="O134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P134">
         <v>99.23</v>
@@ -11394,42 +11386,42 @@
         <v>99.26</v>
       </c>
       <c r="R134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S134" t="s">
         <v>91</v>
       </c>
       <c r="T134" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="U134" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="V134" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="W134" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>30898059</v>
       </c>
       <c r="B135" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C135" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D135" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E135" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F135" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G135">
         <v>125513.2041</v>
@@ -11456,7 +11448,7 @@
         <v>97.453569269810814</v>
       </c>
       <c r="O135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P135">
         <v>99.25</v>
@@ -11465,42 +11457,42 @@
         <v>99.3</v>
       </c>
       <c r="R135" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S135" t="s">
         <v>150</v>
       </c>
       <c r="T135" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="U135" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="V135" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="W135" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>31501916</v>
       </c>
       <c r="B136" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D136" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E136" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G136">
         <v>117114.98177</v>
@@ -11527,7 +11519,7 @@
         <v>97.398590798532084</v>
       </c>
       <c r="O136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P136">
         <v>99.24</v>
@@ -11536,42 +11528,42 @@
         <v>99.27</v>
       </c>
       <c r="R136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S136" t="s">
         <v>150</v>
       </c>
       <c r="T136" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="U136" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="V136" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="W136" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>38853667</v>
       </c>
       <c r="B137" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C137" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D137" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E137" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F137" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G137">
         <v>162966.265369</v>
@@ -11598,7 +11590,7 @@
         <v>97.118374256582328</v>
       </c>
       <c r="O137" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P137">
         <v>99.19</v>
@@ -11607,25 +11599,26 @@
         <v>99.25</v>
       </c>
       <c r="R137" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S137" t="s">
         <v>150</v>
       </c>
       <c r="T137" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="U137" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="V137" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="W137" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W137" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>